--- a/classification/droptc/bert-base-uncased/freeze/43782163/prediction.xlsx
+++ b/classification/droptc/bert-base-uncased/freeze/43782163/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.490662693977356</v>
+        <v>0.7572625875473022</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6873584985733032</v>
+        <v>0.830852210521698</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7566469311714172</v>
+        <v>0.7115304470062256</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7200934290885925</v>
+        <v>0.7729426026344299</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5671968460083008</v>
+        <v>0.670378565788269</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.8183494210243225</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6259039044380188</v>
+        <v>0.9001272320747375</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.7886982560157776</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9045897126197815</v>
+        <v>0.4525732398033142</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7189790606498718</v>
+        <v>0.6676356196403503</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7922397255897522</v>
+        <v>0.5779106616973877</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8294130563735962</v>
+        <v>0.9055586457252502</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7710443139076233</v>
+        <v>0.9001272320747375</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.6676413416862488</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.8426885604858398</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.8536416888237</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4121190905570984</v>
+        <v>0.7520998120307922</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.7197227478027344</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.8643407225608826</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.858244001865387</v>
+        <v>0.7316878437995911</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3306435942649841</v>
+        <v>0.6474347114562988</v>
       </c>
     </row>
     <row r="23">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.353993684053421</v>
+        <v>0.8261730670928955</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5484864711761475</v>
+        <v>0.887042760848999</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5361296534538269</v>
+        <v>0.6040300130844116</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.6946407556533813</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9107267260551453</v>
+        <v>0.7569430470466614</v>
       </c>
     </row>
     <row r="28">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.4871566891670227</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.882060706615448</v>
+        <v>0.5079734921455383</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8114169239997864</v>
+        <v>0.7276368141174316</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.8875292539596558</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7081098556518555</v>
+        <v>0.8980190753936768</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.897392213344574</v>
+        <v>0.7139591574668884</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6932846903800964</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.7479217052459717</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8044729828834534</v>
+        <v>0.3234939873218536</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7045561671257019</v>
+        <v>0.6149730682373047</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7929969429969788</v>
+        <v>0.5863671898841858</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8707226514816284</v>
+        <v>0.7234017848968506</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.670402467250824</v>
+        <v>0.7852182984352112</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5718258023262024</v>
+        <v>0.7630411386489868</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6284987926483154</v>
+        <v>0.8604245781898499</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4069806933403015</v>
+        <v>0.4540173411369324</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7054246068000793</v>
+        <v>0.8009985089302063</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.471246600151062</v>
+        <v>0.8065470457077026</v>
       </c>
     </row>
     <row r="46">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8250665068626404</v>
+        <v>0.4577254951000214</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6737126708030701</v>
+        <v>0.5848984718322754</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6288363337516785</v>
+        <v>0.4798756241798401</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.5721993446350098</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6519913673400879</v>
+        <v>0.9001272320747375</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6126035451889038</v>
+        <v>0.6329094767570496</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8335769772529602</v>
+        <v>0.3603076636791229</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4078623354434967</v>
+        <v>0.3250389695167542</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6440590023994446</v>
+        <v>0.3335991203784943</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.610332727432251</v>
+        <v>0.7329769134521484</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6725332140922546</v>
+        <v>0.6596649885177612</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6209896802902222</v>
+        <v>0.7135034799575806</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2746850550174713</v>
+        <v>0.6349347829818726</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8586931824684143</v>
+        <v>0.7026803493499756</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.894618034362793</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6260229349136353</v>
+        <v>0.4502192139625549</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6803908348083496</v>
+        <v>0.6289933919906616</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7562181949615479</v>
+        <v>0.9065392017364502</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.882060706615448</v>
+        <v>0.750389039516449</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.4604215025901794</v>
       </c>
     </row>
     <row r="66">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6300850510597229</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.8841716647148132</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6518977880477905</v>
+        <v>0.5892249941825867</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6540703177452087</v>
+        <v>0.3293885886669159</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8370208740234375</v>
+        <v>0.7219097018241882</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7261727452278137</v>
+        <v>0.6225104928016663</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7938928008079529</v>
+        <v>0.6106349229812622</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7410008311271667</v>
+        <v>0.4113411009311676</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6685434579849243</v>
+        <v>0.613984227180481</v>
       </c>
     </row>
     <row r="75">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9038986563682556</v>
+        <v>0.4068809747695923</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7260522246360779</v>
+        <v>0.9025696516036987</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7317559719085693</v>
+        <v>0.5051565170288086</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8463159203529358</v>
+        <v>0.7474490404129028</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8536593317985535</v>
+        <v>0.6699420809745789</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.8116202354431152</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7989922165870667</v>
+        <v>0.7704923748970032</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4271019101142883</v>
+        <v>0.7764531970024109</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.557959258556366</v>
+        <v>0.6670147776603699</v>
       </c>
     </row>
     <row r="84">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7149141430854797</v>
+        <v>0.7145923972129822</v>
       </c>
     </row>
     <row r="85">
@@ -2807,14 +2807,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3268075287342072</v>
+        <v>0.4798756241798401</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6917718648910522</v>
+        <v>0.6149730682373047</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8272379636764526</v>
+        <v>0.9001272320747375</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6623983979225159</v>
+        <v>0.4326903820037842</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.9290635585784912</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.4347002804279327</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8752297759056091</v>
+        <v>0.448732316493988</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4321354329586029</v>
+        <v>0.9054011702537537</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7834616303443909</v>
+        <v>0.826230525970459</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9608252644538879</v>
+        <v>0.3692517280578613</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8118965625762939</v>
+        <v>0.6297100186347961</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5722142457962036</v>
+        <v>0.684429407119751</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6983257532119751</v>
+        <v>0.4205052852630615</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.7056111097335815</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5755126476287842</v>
+        <v>0.411188542842865</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7096242904663086</v>
+        <v>0.5560147762298584</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5067138671875</v>
+        <v>0.8225346207618713</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7074151635169983</v>
+        <v>0.8281593322753906</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.457660973072052</v>
+        <v>0.9001272320747375</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7476043701171875</v>
+        <v>0.8326891660690308</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7846715450286865</v>
+        <v>0.4368871748447418</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8260906934738159</v>
+        <v>0.6832525730133057</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5762776732444763</v>
+        <v>0.6098793745040894</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5828590989112854</v>
+        <v>0.4722347855567932</v>
       </c>
     </row>
     <row r="109">
@@ -3479,14 +3479,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.2675534188747406</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4207332730293274</v>
+        <v>0.6924256682395935</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6926071047782898</v>
+        <v>0.5741336941719055</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.3836792409420013</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5328977704048157</v>
+        <v>0.8168018460273743</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3043346703052521</v>
+        <v>0.719237208366394</v>
       </c>
     </row>
     <row r="115">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3651,10 +3651,10 @@
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6007895469665527</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8068639636039734</v>
+        <v>0.8551344275474548</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6652425527572632</v>
+        <v>0.9306766986846924</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3175888359546661</v>
+        <v>0.6020289659500122</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6620946526527405</v>
+        <v>0.4336284399032593</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8647841811180115</v>
+        <v>0.3603076636791229</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7614847421646118</v>
+        <v>0.9036923050880432</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3705701231956482</v>
+        <v>0.7096983790397644</v>
       </c>
     </row>
     <row r="123">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3875,10 +3875,10 @@
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.797533392906189</v>
+        <v>0.483451247215271</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9018098115921021</v>
+        <v>0.650809645652771</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3153397142887115</v>
+        <v>0.3257726430892944</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7293035984039307</v>
+        <v>0.7803940176963806</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.7725760340690613</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7714985013008118</v>
+        <v>0.7480043172836304</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5525924563407898</v>
+        <v>0.683111846446991</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6111173629760742</v>
+        <v>0.5968967080116272</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.8768600821495056</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7970415353775024</v>
+        <v>0.8641713261604309</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.784224808216095</v>
+        <v>0.3972623348236084</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7282664179801941</v>
+        <v>0.6850827932357788</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8868401646614075</v>
+        <v>0.8194557428359985</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.9269992113113403</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5518166422843933</v>
+        <v>0.5369880795478821</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.759843647480011</v>
+        <v>0.6096773743629456</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8573207855224609</v>
+        <v>0.8769168257713318</v>
       </c>
     </row>
     <row r="140">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3697643876075745</v>
+        <v>0.566434919834137</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7601314783096313</v>
+        <v>0.7668061852455139</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5919524431228638</v>
+        <v>0.6452476382255554</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7240288257598877</v>
+        <v>0.656512975692749</v>
       </c>
     </row>
     <row r="144">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9049091935157776</v>
+        <v>0.6323760747909546</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.379835844039917</v>
+        <v>0.3692517280578613</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4246189892292023</v>
+        <v>0.2876387238502502</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.4196117222309113</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4576249718666077</v>
+        <v>0.8211846351623535</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.8561201095581055</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3433354496955872</v>
+        <v>0.9001272320747375</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6579011678695679</v>
+        <v>0.4167749583721161</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7369323968887329</v>
+        <v>0.4695145487785339</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7374277710914612</v>
+        <v>0.4502192139625549</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7626975774765015</v>
+        <v>0.813052773475647</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3801847696304321</v>
+        <v>0.6676356196403503</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6145060062408447</v>
+        <v>0.3424660265445709</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7255806922912598</v>
+        <v>0.6565365195274353</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8444327712059021</v>
+        <v>0.757706344127655</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4688326120376587</v>
+        <v>0.3335991203784943</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5629863142967224</v>
+        <v>0.9001272320747375</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5346721410751343</v>
+        <v>0.7023041844367981</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9301773309707642</v>
+        <v>0.9269992113113403</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6674061417579651</v>
+        <v>0.7007015347480774</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.68412184715271</v>
+        <v>0.7205423712730408</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6451618075370789</v>
+        <v>0.5142314434051514</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6269026398658752</v>
+        <v>0.7163371443748474</v>
       </c>
     </row>
     <row r="167">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7140589952468872</v>
+        <v>0.4768305420875549</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.6676356196403503</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8616759777069092</v>
+        <v>0.6853460073471069</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.694556713104248</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.437300056219101</v>
+        <v>0.637252151966095</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8192811012268066</v>
+        <v>0.7335979342460632</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3000292479991913</v>
+        <v>0.7675025463104248</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8341501951217651</v>
+        <v>0.7082768082618713</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5952574014663696</v>
+        <v>0.4264516830444336</v>
       </c>
     </row>
     <row r="176">
@@ -5355,14 +5355,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5513302087783813</v>
+        <v>0.4540173411369324</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7109676003456116</v>
+        <v>0.3836792409420013</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.5809267163276672</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6451894044876099</v>
+        <v>0.7689040899276733</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3085410296916962</v>
+        <v>0.3109133541584015</v>
       </c>
     </row>
     <row r="181">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.3098060488700867</v>
+        <v>0.6830264925956726</v>
       </c>
     </row>
     <row r="182">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.732082724571228</v>
+        <v>0.5637372732162476</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3678449988365173</v>
+        <v>0.7569430470466614</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.5468030571937561</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7610421776771545</v>
+        <v>0.9001272320747375</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4783370792865753</v>
+        <v>0.5633649826049805</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5014992952346802</v>
+        <v>0.6435659527778625</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8508758544921875</v>
+        <v>0.4540173411369324</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.5928381085395813</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4298675954341888</v>
+        <v>0.4530538320541382</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8011881113052368</v>
+        <v>0.7648987174034119</v>
       </c>
     </row>
     <row r="192">
@@ -5803,14 +5803,14 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4789687097072601</v>
+        <v>0.4057976305484772</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6837407350540161</v>
+        <v>0.4061242938041687</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.7258907556533813</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5662136673927307</v>
+        <v>0.8205810189247131</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.829389750957489</v>
+        <v>0.5291898846626282</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6992573142051697</v>
+        <v>0.8378967046737671</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9329718351364136</v>
+        <v>0.5651448369026184</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4429530799388885</v>
+        <v>0.411188542842865</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7625828385353088</v>
+        <v>0.3574464023113251</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.453845888376236</v>
+        <v>0.3603076636791229</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6824764609336853</v>
+        <v>0.9577378034591675</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.7524481415748596</v>
+        <v>0.8631787300109863</v>
       </c>
     </row>
     <row r="204">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.6908208131790161</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8830776214599609</v>
+        <v>0.9001272320747375</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.6041008830070496</v>
+        <v>0.4798756241798401</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3361645042896271</v>
+        <v>0.4156107306480408</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7532668113708496</v>
+        <v>0.887042760848999</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.3378041982650757</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7079700827598572</v>
+        <v>0.4019034802913666</v>
       </c>
     </row>
   </sheetData>
